--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T18:26:21+00:00</t>
+    <t>2025-12-03T15:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T15:31:39+00:00</t>
+    <t>2025-12-05T10:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:54:45+00:00</t>
+    <t>2025-12-08T08:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T08:28:39+00:00</t>
+    <t>2025-12-10T16:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T16:53:25+00:00</t>
+    <t>2025-12-15T10:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:12:23+00:00</t>
+    <t>2025-12-15T10:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:59:45+00:00</t>
+    <t>2026-01-07T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:19:48+00:00</t>
+    <t>2026-01-09T15:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:13:58+00:00</t>
+    <t>2026-01-09T15:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-prelevement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:21:06+00:00</t>
+    <t>2026-01-16T13:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Prélèvement</t>
+    <t>Prélèvement</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -305,7 +305,7 @@
     <t>fr-lm-prelevement.dispositifUtilise</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/FRLMDispositifMedical
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-lm-dispositif-medical
 </t>
   </si>
   <si>
